--- a/FSDI and Mobil CLASS SCHEDULE .xlsx
+++ b/FSDI and Mobil CLASS SCHEDULE .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ExSSD/FSDI/2 - notes/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DF6EFD-70F9-CD47-A07B-2CBB9C8E374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78AEA98-E1B9-F241-A9D0-06599F1B3689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39920" yWindow="20820" windowWidth="34040" windowHeight="27320" activeTab="3" xr2:uid="{2531F4DD-5355-7F43-BD72-EC1FB01768C0}"/>
+    <workbookView xWindow="46240" yWindow="20820" windowWidth="34040" windowHeight="27320" activeTab="3" xr2:uid="{2531F4DD-5355-7F43-BD72-EC1FB01768C0}"/>
   </bookViews>
   <sheets>
     <sheet name="FSDI COHORT #43-54" sheetId="2" r:id="rId1"/>
@@ -563,10 +563,10 @@
     <t>MDI2 Ch 3 (12-3pm)</t>
   </si>
   <si>
-    <t>MDI2 Ch 1 (9-12pm)</t>
+    <t>MDI2 Ch 4 (9-12pm)</t>
   </si>
   <si>
-    <t>MDI2 Ch 4 (9-12pm)</t>
+    <t>MDI2 Ch 2 (9-12pm)</t>
   </si>
 </sst>
 </file>
@@ -1348,114 +1348,6 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1476,6 +1368,114 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1991,6 +1991,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1998,9 +2001,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2879,10 +2879,10 @@
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
       <c r="BB9" s="5"/>
-      <c r="BC9" s="148" t="s">
+      <c r="BC9" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="BD9" s="149"/>
+      <c r="BD9" s="152"/>
     </row>
     <row r="10" spans="2:76" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -2955,10 +2955,10 @@
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
-      <c r="BC10" s="163" t="s">
+      <c r="BC10" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="BD10" s="159"/>
+      <c r="BD10" s="154"/>
       <c r="BL10" s="3"/>
       <c r="BW10" s="3"/>
       <c r="BX10" s="3"/>
@@ -3036,10 +3036,10 @@
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
-      <c r="BC11" s="164" t="s">
+      <c r="BC11" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="BD11" s="151"/>
+      <c r="BD11" s="156"/>
       <c r="BL11" s="3"/>
       <c r="BW11" s="3"/>
       <c r="BX11" s="3"/>
@@ -3117,74 +3117,74 @@
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
-      <c r="BC12" s="165" t="s">
+      <c r="BC12" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="BD12" s="166"/>
+      <c r="BD12" s="158"/>
       <c r="BL12" s="3"/>
       <c r="BW12" s="3"/>
       <c r="BX12" s="3"/>
     </row>
     <row r="13" spans="2:76" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="154"/>
+      <c r="C13" s="161"/>
       <c r="D13" s="9"/>
-      <c r="F13" s="154" t="s">
+      <c r="F13" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="154"/>
+      <c r="G13" s="161"/>
       <c r="H13" s="1"/>
-      <c r="J13" s="154" t="s">
+      <c r="J13" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="154"/>
+      <c r="K13" s="161"/>
       <c r="L13" s="9"/>
-      <c r="N13" s="154" t="s">
+      <c r="N13" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="154"/>
+      <c r="O13" s="161"/>
       <c r="P13" s="1"/>
-      <c r="R13" s="154" t="s">
+      <c r="R13" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="S13" s="154"/>
+      <c r="S13" s="161"/>
       <c r="T13" s="9"/>
-      <c r="V13" s="154" t="s">
+      <c r="V13" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="W13" s="154"/>
+      <c r="W13" s="161"/>
       <c r="X13" s="1"/>
-      <c r="Z13" s="154" t="s">
+      <c r="Z13" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="AA13" s="154"/>
+      <c r="AA13" s="161"/>
       <c r="AB13" s="9"/>
-      <c r="AD13" s="154" t="s">
+      <c r="AD13" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="AE13" s="154"/>
+      <c r="AE13" s="161"/>
       <c r="AF13" s="1"/>
-      <c r="AH13" s="154" t="s">
+      <c r="AH13" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="AI13" s="154"/>
+      <c r="AI13" s="161"/>
       <c r="AJ13" s="9"/>
-      <c r="AL13" s="154" t="s">
+      <c r="AL13" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="AM13" s="154"/>
+      <c r="AM13" s="161"/>
       <c r="AN13" s="1"/>
-      <c r="AP13" s="154" t="s">
+      <c r="AP13" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="AQ13" s="154"/>
+      <c r="AQ13" s="161"/>
       <c r="AR13" s="9"/>
-      <c r="AT13" s="154" t="s">
+      <c r="AT13" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="AU13" s="154"/>
+      <c r="AU13" s="161"/>
       <c r="AV13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
@@ -3390,10 +3390,10 @@
       <c r="AU16" s="17">
         <v>45614</v>
       </c>
-      <c r="BC16" s="148" t="s">
+      <c r="BC16" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="BD16" s="149"/>
+      <c r="BD16" s="152"/>
     </row>
     <row r="17" spans="1:76" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
@@ -3446,10 +3446,10 @@
       <c r="AZ17" s="18"/>
       <c r="BA17" s="18"/>
       <c r="BB17" s="18"/>
-      <c r="BC17" s="169" t="s">
+      <c r="BC17" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="BD17" s="170"/>
+      <c r="BD17" s="160"/>
       <c r="BL17" s="3"/>
       <c r="BW17" s="3"/>
       <c r="BX17" s="3"/>
@@ -3580,10 +3580,10 @@
       <c r="AZ18" s="48"/>
       <c r="BA18" s="48"/>
       <c r="BB18" s="48"/>
-      <c r="BC18" s="171" t="s">
+      <c r="BC18" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="BD18" s="147"/>
+      <c r="BD18" s="146"/>
       <c r="BL18" s="3"/>
       <c r="BW18" s="3"/>
       <c r="BX18" s="3"/>
@@ -3710,10 +3710,10 @@
       <c r="AZ19" s="48"/>
       <c r="BA19" s="48"/>
       <c r="BB19" s="48"/>
-      <c r="BC19" s="167" t="s">
+      <c r="BC19" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="BD19" s="168"/>
+      <c r="BD19" s="150"/>
       <c r="BL19" s="3"/>
       <c r="BW19" s="3"/>
       <c r="BX19" s="3"/>
@@ -3844,10 +3844,10 @@
       <c r="AZ20" s="48"/>
       <c r="BA20" s="48"/>
       <c r="BB20" s="48"/>
-      <c r="BC20" s="167" t="s">
+      <c r="BC20" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="BD20" s="168"/>
+      <c r="BD20" s="150"/>
       <c r="BL20" s="3"/>
       <c r="BW20" s="3"/>
       <c r="BX20" s="3"/>
@@ -3978,10 +3978,10 @@
       <c r="AZ21" s="48"/>
       <c r="BA21" s="48"/>
       <c r="BB21" s="48"/>
-      <c r="BC21" s="167" t="s">
+      <c r="BC21" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="BD21" s="168"/>
+      <c r="BD21" s="150"/>
       <c r="BL21" s="3"/>
       <c r="BW21" s="3"/>
       <c r="BX21" s="3"/>
@@ -4110,10 +4110,10 @@
       <c r="AZ22" s="48"/>
       <c r="BA22" s="48"/>
       <c r="BB22" s="48"/>
-      <c r="BC22" s="167" t="s">
+      <c r="BC22" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="BD22" s="168"/>
+      <c r="BD22" s="150"/>
       <c r="BL22" s="3"/>
       <c r="BW22" s="3"/>
       <c r="BX22" s="3"/>
@@ -4242,10 +4242,10 @@
       <c r="AZ23" s="48"/>
       <c r="BA23" s="48"/>
       <c r="BB23" s="48"/>
-      <c r="BC23" s="171" t="s">
+      <c r="BC23" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="BD23" s="147"/>
+      <c r="BD23" s="146"/>
       <c r="BL23" s="3"/>
       <c r="BW23" s="3"/>
       <c r="BX23" s="3"/>
@@ -4374,10 +4374,10 @@
       <c r="AZ24" s="48"/>
       <c r="BA24" s="48"/>
       <c r="BB24" s="48"/>
-      <c r="BC24" s="173" t="s">
+      <c r="BC24" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="BD24" s="147"/>
+      <c r="BD24" s="146"/>
       <c r="BL24" s="3"/>
       <c r="BW24" s="3"/>
       <c r="BX24" s="3"/>
@@ -4506,10 +4506,10 @@
       <c r="AZ25" s="48"/>
       <c r="BA25" s="48"/>
       <c r="BB25" s="48"/>
-      <c r="BC25" s="160" t="s">
+      <c r="BC25" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="BD25" s="161"/>
+      <c r="BD25" s="172"/>
       <c r="BL25" s="3"/>
       <c r="BW25" s="3"/>
       <c r="BX25" s="3"/>
@@ -4904,10 +4904,10 @@
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
-      <c r="BC28" s="148" t="s">
+      <c r="BC28" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="BD28" s="149"/>
+      <c r="BD28" s="152"/>
       <c r="BL28" s="3"/>
       <c r="BW28" s="3"/>
       <c r="BX28" s="3"/>
@@ -5038,10 +5038,10 @@
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
-      <c r="BC29" s="158" t="s">
+      <c r="BC29" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="BD29" s="159"/>
+      <c r="BD29" s="154"/>
       <c r="BL29" s="3"/>
       <c r="BW29" s="3"/>
       <c r="BX29" s="3"/>
@@ -5168,10 +5168,10 @@
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
-      <c r="BC30" s="155" t="s">
+      <c r="BC30" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="BD30" s="151"/>
+      <c r="BD30" s="156"/>
       <c r="BL30" s="3"/>
       <c r="BW30" s="3"/>
       <c r="BX30" s="3"/>
@@ -5302,10 +5302,10 @@
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
-      <c r="BC31" s="155" t="s">
+      <c r="BC31" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="BD31" s="151"/>
+      <c r="BD31" s="156"/>
       <c r="BL31" s="3"/>
       <c r="BW31" s="3"/>
       <c r="BX31" s="3"/>
@@ -5436,10 +5436,10 @@
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
-      <c r="BC32" s="156" t="s">
+      <c r="BC32" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="BD32" s="153"/>
+      <c r="BD32" s="164"/>
       <c r="BL32" s="3"/>
       <c r="BW32" s="3"/>
       <c r="BX32" s="3"/>
@@ -5566,10 +5566,10 @@
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
-      <c r="BC33" s="156" t="s">
+      <c r="BC33" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="BD33" s="153"/>
+      <c r="BD33" s="164"/>
       <c r="BL33" s="3"/>
       <c r="BW33" s="3"/>
       <c r="BX33" s="3"/>
@@ -5696,10 +5696,10 @@
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
-      <c r="BC34" s="157" t="s">
+      <c r="BC34" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="BD34" s="153"/>
+      <c r="BD34" s="164"/>
       <c r="BL34" s="3"/>
       <c r="BW34" s="3"/>
       <c r="BX34" s="3"/>
@@ -5824,10 +5824,10 @@
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
-      <c r="BC35" s="162" t="s">
+      <c r="BC35" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="BD35" s="145"/>
+      <c r="BD35" s="174"/>
       <c r="BL35" s="3"/>
       <c r="BW35" s="3"/>
       <c r="BX35" s="3"/>
@@ -5958,10 +5958,10 @@
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
-      <c r="BC36" s="172" t="s">
+      <c r="BC36" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="BD36" s="147"/>
+      <c r="BD36" s="146"/>
       <c r="BL36" s="3"/>
       <c r="BW36" s="3"/>
       <c r="BX36" s="3"/>
@@ -6092,10 +6092,10 @@
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
-      <c r="BC37" s="172" t="s">
+      <c r="BC37" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="BD37" s="147"/>
+      <c r="BD37" s="146"/>
       <c r="BL37" s="3"/>
       <c r="BW37" s="3"/>
       <c r="BX37" s="3"/>
@@ -6224,10 +6224,10 @@
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
-      <c r="BC38" s="138" t="s">
+      <c r="BC38" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="BD38" s="139"/>
+      <c r="BD38" s="166"/>
       <c r="BL38" s="3"/>
       <c r="BW38" s="3"/>
       <c r="BX38" s="3"/>
@@ -6618,10 +6618,10 @@
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
-      <c r="BC41" s="148" t="s">
+      <c r="BC41" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="BD41" s="149"/>
+      <c r="BD41" s="152"/>
       <c r="BL41" s="3"/>
       <c r="BW41" s="3"/>
       <c r="BX41" s="3"/>
@@ -6752,10 +6752,10 @@
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
-      <c r="BC42" s="150" t="s">
+      <c r="BC42" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="BD42" s="151"/>
+      <c r="BD42" s="156"/>
       <c r="BL42" s="3"/>
       <c r="BW42" s="3"/>
       <c r="BX42" s="3"/>
@@ -6886,10 +6886,10 @@
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
-      <c r="BC43" s="150" t="s">
+      <c r="BC43" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="BD43" s="151"/>
+      <c r="BD43" s="156"/>
       <c r="BL43" s="3"/>
       <c r="BW43" s="3"/>
       <c r="BX43" s="3"/>
@@ -7020,10 +7020,10 @@
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
-      <c r="BC44" s="152" t="s">
+      <c r="BC44" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="BD44" s="153"/>
+      <c r="BD44" s="164"/>
       <c r="BL44" s="3"/>
       <c r="BW44" s="3"/>
       <c r="BX44" s="3"/>
@@ -7154,10 +7154,10 @@
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
-      <c r="BC45" s="140" t="s">
+      <c r="BC45" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="BD45" s="141"/>
+      <c r="BD45" s="176"/>
       <c r="BL45" s="3"/>
       <c r="BW45" s="3"/>
       <c r="BX45" s="3"/>
@@ -7422,10 +7422,10 @@
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
-      <c r="BC47" s="142" t="s">
+      <c r="BC47" s="177" t="s">
         <v>101</v>
       </c>
-      <c r="BD47" s="143"/>
+      <c r="BD47" s="178"/>
       <c r="BL47" s="3"/>
       <c r="BW47" s="3"/>
       <c r="BX47" s="3"/>
@@ -7552,10 +7552,10 @@
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
-      <c r="BC48" s="144" t="s">
+      <c r="BC48" s="179" t="s">
         <v>102</v>
       </c>
-      <c r="BD48" s="145"/>
+      <c r="BD48" s="174"/>
       <c r="BL48" s="3"/>
       <c r="BW48" s="3"/>
       <c r="BX48" s="3"/>
@@ -7680,10 +7680,10 @@
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
-      <c r="BC49" s="146" t="s">
+      <c r="BC49" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="BD49" s="147"/>
+      <c r="BD49" s="146"/>
       <c r="BL49" s="3"/>
       <c r="BW49" s="3"/>
       <c r="BX49" s="3"/>
@@ -7810,10 +7810,10 @@
       <c r="AZ50" s="49"/>
       <c r="BA50" s="49"/>
       <c r="BB50" s="49"/>
-      <c r="BC50" s="146" t="s">
+      <c r="BC50" s="180" t="s">
         <v>104</v>
       </c>
-      <c r="BD50" s="147"/>
+      <c r="BD50" s="146"/>
       <c r="BL50" s="3"/>
       <c r="BW50" s="3"/>
       <c r="BX50" s="3"/>
@@ -7940,10 +7940,10 @@
       <c r="AZ51" s="49"/>
       <c r="BA51" s="49"/>
       <c r="BB51" s="49"/>
-      <c r="BC51" s="138" t="s">
+      <c r="BC51" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="BD51" s="139"/>
+      <c r="BD51" s="166"/>
       <c r="BL51" s="3"/>
       <c r="BW51" s="3"/>
       <c r="BX51" s="3"/>
@@ -17604,31 +17604,12 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="BC36:BD36"/>
-    <mergeCell ref="BC37:BD37"/>
-    <mergeCell ref="BC23:BD23"/>
-    <mergeCell ref="BC24:BD24"/>
-    <mergeCell ref="BC21:BD21"/>
-    <mergeCell ref="BC22:BD22"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BC10:BD10"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BC20:BD20"/>
-    <mergeCell ref="BC16:BD16"/>
-    <mergeCell ref="BC17:BD17"/>
-    <mergeCell ref="BC18:BD18"/>
-    <mergeCell ref="BC19:BD19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="BC51:BD51"/>
+    <mergeCell ref="BC45:BD45"/>
+    <mergeCell ref="BC47:BD47"/>
+    <mergeCell ref="BC48:BD48"/>
+    <mergeCell ref="BC49:BD49"/>
+    <mergeCell ref="BC50:BD50"/>
     <mergeCell ref="BC41:BD41"/>
     <mergeCell ref="BC42:BD42"/>
     <mergeCell ref="BC43:BD43"/>
@@ -17645,17 +17626,36 @@
     <mergeCell ref="BC25:BD25"/>
     <mergeCell ref="BC28:BD28"/>
     <mergeCell ref="BC35:BD35"/>
-    <mergeCell ref="BC51:BD51"/>
-    <mergeCell ref="BC45:BD45"/>
-    <mergeCell ref="BC47:BD47"/>
-    <mergeCell ref="BC48:BD48"/>
-    <mergeCell ref="BC49:BD49"/>
-    <mergeCell ref="BC50:BD50"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BC10:BD10"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BC20:BD20"/>
+    <mergeCell ref="BC16:BD16"/>
+    <mergeCell ref="BC17:BD17"/>
+    <mergeCell ref="BC18:BD18"/>
+    <mergeCell ref="BC19:BD19"/>
+    <mergeCell ref="BC36:BD36"/>
+    <mergeCell ref="BC37:BD37"/>
+    <mergeCell ref="BC23:BD23"/>
+    <mergeCell ref="BC24:BD24"/>
+    <mergeCell ref="BC21:BD21"/>
+    <mergeCell ref="BC22:BD22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C17 C8">
-    <cfRule type="duplicateValues" dxfId="79" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C117">
     <cfRule type="duplicateValues" dxfId="77" priority="69"/>
@@ -17685,8 +17685,8 @@
     <cfRule type="duplicateValues" dxfId="69" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:O159">
-    <cfRule type="duplicateValues" dxfId="68" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O129">
     <cfRule type="duplicateValues" dxfId="66" priority="61"/>
@@ -17718,14 +17718,14 @@
     <cfRule type="duplicateValues" dxfId="56" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA18:AA111">
-    <cfRule type="duplicateValues" dxfId="55" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA18:AA159">
-    <cfRule type="duplicateValues" dxfId="53" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA111:AA159">
     <cfRule type="duplicateValues" dxfId="49" priority="45"/>
@@ -17734,8 +17734,8 @@
     <cfRule type="duplicateValues" dxfId="48" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AE110">
-    <cfRule type="duplicateValues" dxfId="47" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AE158">
     <cfRule type="duplicateValues" dxfId="45" priority="26"/>
@@ -17753,12 +17753,12 @@
     <cfRule type="duplicateValues" dxfId="41" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM18:AM113">
-    <cfRule type="duplicateValues" dxfId="40" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM18:AM159">
-    <cfRule type="duplicateValues" dxfId="38" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM114:AM159">
     <cfRule type="duplicateValues" dxfId="36" priority="48"/>
@@ -17773,8 +17773,8 @@
     <cfRule type="duplicateValues" dxfId="33" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU18:AU113">
-    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU18:AU159">
     <cfRule type="duplicateValues" dxfId="30" priority="20"/>
@@ -17895,7 +17895,7 @@
       <c r="B2" s="22">
         <v>45615</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="138" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="21" t="s">
@@ -18002,7 +18002,7 @@
       <c r="B3" s="22">
         <v>45617</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="138" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="30" t="s">
@@ -18107,7 +18107,7 @@
       <c r="B4" s="22">
         <v>45619</v>
       </c>
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="138" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="28" t="s">
@@ -18214,7 +18214,7 @@
       <c r="B5" s="22">
         <v>45622</v>
       </c>
-      <c r="C5" s="174" t="s">
+      <c r="C5" s="138" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -18319,7 +18319,7 @@
       <c r="B6" s="26">
         <v>45624</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="139"/>
       <c r="E6" s="21" t="s">
         <v>5</v>
       </c>
@@ -18424,7 +18424,7 @@
       <c r="B7" s="22">
         <v>45626</v>
       </c>
-      <c r="C7" s="174" t="s">
+      <c r="C7" s="138" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -18531,7 +18531,7 @@
       <c r="B8" s="22">
         <v>45629</v>
       </c>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="138" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -18638,7 +18638,7 @@
       <c r="B9" s="22">
         <v>45631</v>
       </c>
-      <c r="C9" s="174" t="s">
+      <c r="C9" s="138" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="21" t="s">
@@ -18745,7 +18745,7 @@
       <c r="B10" s="22">
         <v>45633</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="138" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -18852,7 +18852,7 @@
       <c r="B11" s="22">
         <v>45636</v>
       </c>
-      <c r="C11" s="176" t="s">
+      <c r="C11" s="140" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="30" t="s">
@@ -18957,7 +18957,7 @@
       <c r="B12" s="22">
         <v>45638</v>
       </c>
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="140" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="21" t="s">
@@ -19064,7 +19064,7 @@
       <c r="B13" s="22">
         <v>45640</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="140" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -19169,7 +19169,7 @@
       <c r="B14" s="22">
         <v>45643</v>
       </c>
-      <c r="C14" s="176" t="s">
+      <c r="C14" s="140" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="21" t="s">
@@ -19276,7 +19276,7 @@
       <c r="B15" s="22">
         <v>45645</v>
       </c>
-      <c r="C15" s="176" t="s">
+      <c r="C15" s="140" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="21" t="s">
@@ -19383,7 +19383,7 @@
       <c r="B16" s="22">
         <v>45647</v>
       </c>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="140" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="28" t="s">
@@ -19488,7 +19488,7 @@
       <c r="B17" s="26">
         <v>45650</v>
       </c>
-      <c r="C17" s="175"/>
+      <c r="C17" s="139"/>
       <c r="E17" s="21" t="s">
         <v>7</v>
       </c>
@@ -19589,7 +19589,7 @@
       <c r="B18" s="26">
         <v>45652</v>
       </c>
-      <c r="C18" s="175"/>
+      <c r="C18" s="139"/>
       <c r="E18" s="21" t="s">
         <v>5</v>
       </c>
@@ -19690,7 +19690,7 @@
       <c r="B19" s="26">
         <v>45654</v>
       </c>
-      <c r="C19" s="175"/>
+      <c r="C19" s="139"/>
       <c r="E19" s="28" t="s">
         <v>2</v>
       </c>
@@ -19793,7 +19793,7 @@
       <c r="B20" s="22">
         <v>45657</v>
       </c>
-      <c r="C20" s="176" t="s">
+      <c r="C20" s="140" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="21" t="s">
@@ -19898,7 +19898,7 @@
       <c r="B21" s="22">
         <v>45659</v>
       </c>
-      <c r="C21" s="176" t="s">
+      <c r="C21" s="140" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="21" t="s">
@@ -20003,7 +20003,7 @@
       <c r="B22" s="22">
         <v>45661</v>
       </c>
-      <c r="C22" s="176" t="s">
+      <c r="C22" s="140" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="28" t="s">
@@ -20110,7 +20110,7 @@
       <c r="B23" s="22">
         <v>45664</v>
       </c>
-      <c r="C23" s="176" t="s">
+      <c r="C23" s="140" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -20215,7 +20215,7 @@
       <c r="B24" s="22">
         <v>45666</v>
       </c>
-      <c r="C24" s="176" t="s">
+      <c r="C24" s="140" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="21" t="s">
@@ -20322,7 +20322,7 @@
       <c r="B25" s="22">
         <v>45668</v>
       </c>
-      <c r="C25" s="177" t="s">
+      <c r="C25" s="141" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="28" t="s">
@@ -20429,7 +20429,7 @@
       <c r="B26" s="22">
         <v>45671</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="140" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="21" t="s">
@@ -20536,7 +20536,7 @@
       <c r="B27" s="22">
         <v>45673</v>
       </c>
-      <c r="C27" s="176" t="s">
+      <c r="C27" s="140" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="21" t="s">
@@ -20643,7 +20643,7 @@
       <c r="B28" s="22">
         <v>45675</v>
       </c>
-      <c r="C28" s="176" t="s">
+      <c r="C28" s="140" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="28" t="s">
@@ -20746,7 +20746,7 @@
       <c r="B29" s="22">
         <v>45678</v>
       </c>
-      <c r="C29" s="176" t="s">
+      <c r="C29" s="140" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="21" t="s">
@@ -20853,7 +20853,7 @@
       <c r="B30" s="22">
         <v>45680</v>
       </c>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="140" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="21" t="s">
@@ -20960,7 +20960,7 @@
       <c r="B31" s="22">
         <v>45682</v>
       </c>
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="140" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="28" t="s">
@@ -21065,7 +21065,7 @@
       <c r="B32" s="22">
         <v>45685</v>
       </c>
-      <c r="C32" s="176" t="s">
+      <c r="C32" s="140" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="21" t="s">
@@ -21168,7 +21168,7 @@
       <c r="B33" s="22">
         <v>45687</v>
       </c>
-      <c r="C33" s="176" t="s">
+      <c r="C33" s="140" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="21" t="s">
@@ -21271,7 +21271,7 @@
       <c r="B34" s="22">
         <v>45689</v>
       </c>
-      <c r="C34" s="176" t="s">
+      <c r="C34" s="140" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="28" t="s">
@@ -21376,7 +21376,7 @@
       <c r="B35" s="22">
         <v>45692</v>
       </c>
-      <c r="C35" s="176" t="s">
+      <c r="C35" s="140" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="21" t="s">
@@ -21477,7 +21477,7 @@
       <c r="B36" s="22">
         <v>45694</v>
       </c>
-      <c r="C36" s="176" t="s">
+      <c r="C36" s="140" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="21" t="s">
@@ -21582,7 +21582,7 @@
       <c r="B37" s="22">
         <v>45696</v>
       </c>
-      <c r="C37" s="176" t="s">
+      <c r="C37" s="140" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="28" t="s">
@@ -21689,7 +21689,7 @@
       <c r="B38" s="22">
         <v>45699</v>
       </c>
-      <c r="C38" s="176" t="s">
+      <c r="C38" s="140" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="21" t="s">
@@ -21796,7 +21796,7 @@
       <c r="B39" s="22">
         <v>45701</v>
       </c>
-      <c r="C39" s="176" t="s">
+      <c r="C39" s="140" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="21" t="s">
@@ -21903,7 +21903,7 @@
       <c r="B40" s="22">
         <v>45703</v>
       </c>
-      <c r="C40" s="176" t="s">
+      <c r="C40" s="140" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="28" t="s">
@@ -22010,7 +22010,7 @@
       <c r="B41" s="22">
         <v>45706</v>
       </c>
-      <c r="C41" s="176" t="s">
+      <c r="C41" s="140" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="21" t="s">
@@ -22117,7 +22117,7 @@
       <c r="B42" s="22">
         <v>45708</v>
       </c>
-      <c r="C42" s="176" t="s">
+      <c r="C42" s="140" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="21" t="s">
@@ -22224,7 +22224,7 @@
       <c r="B43" s="22">
         <v>45710</v>
       </c>
-      <c r="C43" s="177" t="s">
+      <c r="C43" s="141" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="28" t="s">
@@ -22327,7 +22327,7 @@
       <c r="B44" s="22">
         <v>45713</v>
       </c>
-      <c r="C44" s="176" t="s">
+      <c r="C44" s="140" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="21" t="s">
@@ -22434,7 +22434,7 @@
       <c r="B45" s="22">
         <v>45715</v>
       </c>
-      <c r="C45" s="176" t="s">
+      <c r="C45" s="140" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="21" t="s">
@@ -22541,7 +22541,7 @@
       <c r="B46" s="22">
         <v>45717</v>
       </c>
-      <c r="C46" s="176" t="s">
+      <c r="C46" s="140" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="28" t="s">
@@ -22646,7 +22646,7 @@
       <c r="B47" s="22">
         <v>45720</v>
       </c>
-      <c r="C47" s="176" t="s">
+      <c r="C47" s="140" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="30" t="s">
@@ -22749,7 +22749,7 @@
       <c r="B48" s="22">
         <v>45722</v>
       </c>
-      <c r="C48" s="176" t="s">
+      <c r="C48" s="140" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="30" t="s">
@@ -22852,7 +22852,7 @@
       <c r="B49" s="22">
         <v>45724</v>
       </c>
-      <c r="C49" s="176" t="s">
+      <c r="C49" s="140" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="28" t="s">
@@ -22957,7 +22957,7 @@
       <c r="B50" s="22">
         <v>45727</v>
       </c>
-      <c r="C50" s="176" t="s">
+      <c r="C50" s="140" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="21" t="s">
@@ -23062,7 +23062,7 @@
       <c r="B51" s="22">
         <v>45729</v>
       </c>
-      <c r="C51" s="176" t="s">
+      <c r="C51" s="140" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="21" t="s">
@@ -23167,7 +23167,7 @@
       <c r="B52" s="22">
         <v>45731</v>
       </c>
-      <c r="C52" s="176" t="s">
+      <c r="C52" s="140" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="28" t="s">
@@ -23274,7 +23274,7 @@
       <c r="B53" s="22">
         <v>45734</v>
       </c>
-      <c r="C53" s="176" t="s">
+      <c r="C53" s="140" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="21" t="s">
@@ -23381,7 +23381,7 @@
       <c r="B54" s="22">
         <v>45736</v>
       </c>
-      <c r="C54" s="176" t="s">
+      <c r="C54" s="140" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="21" t="s">
@@ -23488,7 +23488,7 @@
       <c r="B55" s="22">
         <v>45738</v>
       </c>
-      <c r="C55" s="176" t="s">
+      <c r="C55" s="140" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="28" t="s">
@@ -23593,7 +23593,7 @@
       <c r="B56" s="22">
         <v>45741</v>
       </c>
-      <c r="C56" s="176" t="s">
+      <c r="C56" s="140" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="21" t="s">
@@ -23700,7 +23700,7 @@
       <c r="B57" s="22">
         <v>45743</v>
       </c>
-      <c r="C57" s="176" t="s">
+      <c r="C57" s="140" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="21" t="s">
@@ -23807,7 +23807,7 @@
       <c r="B58" s="22">
         <v>45745</v>
       </c>
-      <c r="C58" s="176" t="s">
+      <c r="C58" s="140" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="28" t="s">
@@ -23910,7 +23910,7 @@
       <c r="B59" s="22">
         <v>45748</v>
       </c>
-      <c r="C59" s="176" t="s">
+      <c r="C59" s="140" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="21" t="s">
@@ -24015,7 +24015,7 @@
       <c r="B60" s="22">
         <v>45750</v>
       </c>
-      <c r="C60" s="176" t="s">
+      <c r="C60" s="140" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="21" t="s">
@@ -24120,7 +24120,7 @@
       <c r="B61" s="22">
         <v>45752</v>
       </c>
-      <c r="C61" s="176" t="s">
+      <c r="C61" s="140" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="28" t="s">
@@ -24225,7 +24225,7 @@
       <c r="B62" s="22">
         <v>45755</v>
       </c>
-      <c r="C62" s="176" t="s">
+      <c r="C62" s="140" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="21" t="s">
@@ -24330,7 +24330,7 @@
       <c r="B63" s="22">
         <v>45757</v>
       </c>
-      <c r="C63" s="176" t="s">
+      <c r="C63" s="140" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="21" t="s">
@@ -24435,7 +24435,7 @@
       <c r="B64" s="22">
         <v>45759</v>
       </c>
-      <c r="C64" s="176" t="s">
+      <c r="C64" s="140" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="28" t="s">
@@ -24540,7 +24540,7 @@
       <c r="B65" s="26">
         <v>45762</v>
       </c>
-      <c r="C65" s="175"/>
+      <c r="C65" s="139"/>
       <c r="E65" s="30" t="s">
         <v>7</v>
       </c>
@@ -24639,7 +24639,7 @@
       <c r="B66" s="26">
         <v>45764</v>
       </c>
-      <c r="C66" s="175"/>
+      <c r="C66" s="139"/>
       <c r="E66" s="21" t="s">
         <v>5</v>
       </c>
@@ -24742,7 +24742,7 @@
       <c r="B67" s="22">
         <v>45766</v>
       </c>
-      <c r="C67" s="177" t="s">
+      <c r="C67" s="141" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="28" t="s">
@@ -24849,7 +24849,7 @@
       <c r="B68" s="22">
         <v>45769</v>
       </c>
-      <c r="C68" s="176" t="s">
+      <c r="C68" s="140" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="21" t="s">
@@ -24956,7 +24956,7 @@
       <c r="B69" s="22">
         <v>45771</v>
       </c>
-      <c r="C69" s="176" t="s">
+      <c r="C69" s="140" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="21" t="s">
@@ -25063,7 +25063,7 @@
       <c r="B70" s="22">
         <v>45773</v>
       </c>
-      <c r="C70" s="176" t="s">
+      <c r="C70" s="140" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="28" t="s">
@@ -25170,7 +25170,7 @@
       <c r="B71" s="22">
         <v>45776</v>
       </c>
-      <c r="C71" s="176" t="s">
+      <c r="C71" s="140" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="21" t="s">
@@ -25277,7 +25277,7 @@
       <c r="B72" s="22">
         <v>45778</v>
       </c>
-      <c r="C72" s="176" t="s">
+      <c r="C72" s="140" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="21" t="s">
@@ -25384,7 +25384,7 @@
       <c r="B73" s="22">
         <v>45780</v>
       </c>
-      <c r="C73" s="176" t="s">
+      <c r="C73" s="140" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="28" t="s">
@@ -25487,7 +25487,7 @@
       <c r="B74" s="22">
         <v>45783</v>
       </c>
-      <c r="C74" s="176" t="s">
+      <c r="C74" s="140" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="21" t="s">
@@ -25592,7 +25592,7 @@
       <c r="B75" s="22">
         <v>45785</v>
       </c>
-      <c r="C75" s="176" t="s">
+      <c r="C75" s="140" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="21" t="s">
@@ -25699,7 +25699,7 @@
       <c r="B76" s="22">
         <v>45787</v>
       </c>
-      <c r="C76" s="176" t="s">
+      <c r="C76" s="140" t="s">
         <v>10</v>
       </c>
       <c r="E76" s="28" t="s">
@@ -25804,7 +25804,7 @@
       <c r="B77" s="22">
         <v>45790</v>
       </c>
-      <c r="C77" s="176" t="s">
+      <c r="C77" s="140" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="21" t="s">
@@ -25907,7 +25907,7 @@
       <c r="B78" s="22">
         <v>45792</v>
       </c>
-      <c r="C78" s="176" t="s">
+      <c r="C78" s="140" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="21" t="s">
@@ -26012,7 +26012,7 @@
       <c r="B79" s="22">
         <v>45794</v>
       </c>
-      <c r="C79" s="176" t="s">
+      <c r="C79" s="140" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="28" t="s">
@@ -26117,7 +26117,7 @@
       <c r="B80" s="22">
         <v>45797</v>
       </c>
-      <c r="C80" s="176" t="s">
+      <c r="C80" s="140" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="21" t="s">
@@ -26222,7 +26222,7 @@
       <c r="B81" s="22">
         <v>45799</v>
       </c>
-      <c r="C81" s="176" t="s">
+      <c r="C81" s="140" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="21" t="s">
@@ -26327,7 +26327,7 @@
       <c r="B82" s="22">
         <v>45801</v>
       </c>
-      <c r="C82" s="176" t="s">
+      <c r="C82" s="140" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="28" t="s">
@@ -26434,7 +26434,7 @@
       <c r="B83" s="22">
         <v>45804</v>
       </c>
-      <c r="C83" s="176" t="s">
+      <c r="C83" s="140" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="21" t="s">
@@ -26541,7 +26541,7 @@
       <c r="B84" s="22">
         <v>45806</v>
       </c>
-      <c r="C84" s="176" t="s">
+      <c r="C84" s="140" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="21" t="s">
@@ -26648,7 +26648,7 @@
       <c r="B85" s="22">
         <v>45808</v>
       </c>
-      <c r="C85" s="176" t="s">
+      <c r="C85" s="140" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="28" t="s">
@@ -26753,7 +26753,7 @@
       <c r="B86" s="22">
         <v>45811</v>
       </c>
-      <c r="C86" s="176" t="s">
+      <c r="C86" s="140" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="21" t="s">
@@ -26860,7 +26860,7 @@
       <c r="B87" s="22">
         <v>45813</v>
       </c>
-      <c r="C87" s="176" t="s">
+      <c r="C87" s="140" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="21" t="s">
@@ -26967,7 +26967,7 @@
       <c r="B88" s="22">
         <v>45815</v>
       </c>
-      <c r="C88" s="176" t="s">
+      <c r="C88" s="140" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="28" t="s">
@@ -27072,7 +27072,7 @@
       <c r="B89" s="22">
         <v>45818</v>
       </c>
-      <c r="C89" s="176" t="s">
+      <c r="C89" s="140" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="21" t="s">
@@ -27177,7 +27177,7 @@
       <c r="B90" s="22">
         <v>45820</v>
       </c>
-      <c r="C90" s="176" t="s">
+      <c r="C90" s="140" t="s">
         <v>0</v>
       </c>
       <c r="E90" s="21" t="s">
@@ -27282,7 +27282,7 @@
       <c r="B91" s="22">
         <v>45822</v>
       </c>
-      <c r="C91" s="176" t="s">
+      <c r="C91" s="140" t="s">
         <v>0</v>
       </c>
       <c r="E91" s="28" t="s">
@@ -27389,7 +27389,7 @@
       <c r="B92" s="22">
         <v>45825</v>
       </c>
-      <c r="C92" s="176" t="s">
+      <c r="C92" s="140" t="s">
         <v>0</v>
       </c>
       <c r="E92" s="21" t="s">
@@ -27490,7 +27490,7 @@
       <c r="B93" s="26">
         <v>45827</v>
       </c>
-      <c r="C93" s="178"/>
+      <c r="C93" s="142"/>
       <c r="E93" s="21" t="s">
         <v>5</v>
       </c>
@@ -27589,7 +27589,7 @@
       <c r="B94" s="22">
         <v>45829</v>
       </c>
-      <c r="C94" s="176" t="s">
+      <c r="C94" s="140" t="s">
         <v>0</v>
       </c>
       <c r="E94" s="28" t="s">
@@ -27684,7 +27684,7 @@
       <c r="B95" s="22">
         <v>45832</v>
       </c>
-      <c r="C95" s="179" t="s">
+      <c r="C95" s="143" t="s">
         <v>0</v>
       </c>
       <c r="E95" s="56" t="s">
@@ -27779,7 +27779,7 @@
       <c r="B96" s="22">
         <v>45834</v>
       </c>
-      <c r="C96" s="176" t="s">
+      <c r="C96" s="140" t="s">
         <v>0</v>
       </c>
       <c r="E96" s="21"/>
@@ -27856,7 +27856,7 @@
       <c r="B97" s="22">
         <v>45836</v>
       </c>
-      <c r="C97" s="177" t="s">
+      <c r="C97" s="141" t="s">
         <v>0</v>
       </c>
       <c r="E97" s="28"/>
@@ -28157,15 +28157,15 @@
       </c>
       <c r="G1" s="137"/>
       <c r="H1" s="5"/>
-      <c r="K1" s="180" t="s">
+      <c r="K1" s="144" t="s">
         <v>169</v>
       </c>
       <c r="L1" s="132"/>
-      <c r="P1" s="180" t="s">
+      <c r="P1" s="144" t="s">
         <v>170</v>
       </c>
       <c r="Q1" s="132"/>
-      <c r="U1" s="180" t="s">
+      <c r="U1" s="144" t="s">
         <v>171</v>
       </c>
       <c r="V1" s="132" t="s">
@@ -32742,7 +32742,7 @@
   <dimension ref="A2:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32764,7 +32764,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G2" s="5"/>
       <c r="K2" s="5" t="s">
@@ -32772,7 +32772,7 @@
       </c>
       <c r="L2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P2" s="5"/>
     </row>
